--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Orders/EdoUpdReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Orders/EdoUpdReport.xlsx
@@ -253,16 +253,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.63671875" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="53.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="36.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.34"/>
